--- a/04/Assets/4.1/missing_values.xlsx
+++ b/04/Assets/4.1/missing_values.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Library/CloudStorage/Dropbox/git/dsv/04/Assets/4.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{131A3780-8D98-F64C-ACB2-8925B9CCB0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D513E0-A670-D646-B792-6ECBAAC6971A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{B3CC21D8-92DE-9D40-9172-B54889748CDC}"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{B3CC21D8-92DE-9D40-9172-B54889748CDC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Using Formulae" sheetId="1" r:id="rId1"/>
+    <sheet name="Filtering with a table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t xml:space="preserve"> ID </t>
   </si>
@@ -155,6 +156,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36E6D835-527C-3F49-A8B5-C620446B9CAD}" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5" xr:uid="{36E6D835-527C-3F49-A8B5-C620446B9CAD}">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{BA040BC1-AB0F-B045-B081-F2826B0CD6AE}" name=" ID "/>
+    <tableColumn id="2" xr3:uid="{22943831-A283-864D-8C61-31DDB023B599}" name=" Name "/>
+    <tableColumn id="3" xr3:uid="{3F8A40FB-1460-1F40-9CFE-0BA407212DF6}" name=" dob "/>
+    <tableColumn id="4" xr3:uid="{EAE3DE5D-3131-614C-A30D-499A21CABFC2}" name=" phone "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF370D8E-AA24-DD4D-BDB9-BADCAE9BC8CC}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,4 +598,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A06B21-2D5C-5A4A-A197-8A0994A9C766}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2345678901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>